--- a/cal_master_data.xlsx
+++ b/cal_master_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>code</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Cal_days</t>
   </si>
   <si>
-    <t>Actual data</t>
-  </si>
-  <si>
     <t xml:space="preserve">expected data </t>
   </si>
   <si>
@@ -217,10 +214,64 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>ALKA JAIN</t>
+    <t>existing data</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANITA SHARMA </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
   </si>
 </sst>
 </file>
@@ -299,17 +350,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1127,269 +1207,431 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
       <c r="D1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(C2=D2,"pass","Fail")</f>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(B2=C2,"pass","Fail")</f>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12">
-        <v>30</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E14" si="0">IF(C3=D3,"pass","Fail")</f>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D27" si="0">IF(B3=C3,"pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(B4=C4,"pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12">
-        <v>24</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11">
-        <v>13</v>
-      </c>
-      <c r="D8" s="12">
-        <v>13</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-      <c r="D9" s="12">
-        <v>8</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>50</v>
       </c>
+      <c r="B12" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="C12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>pass</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="str">
+      <c r="B14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>pass</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
     </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="D2:D27">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"""Pass"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D2:D27">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
